--- a/data/evaluation/evaluation_South_Spring_Beets.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Beets.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2806.592274755838</v>
+        <v>2802.903978651449</v>
       </c>
       <c r="C4" t="n">
-        <v>18018404.77838954</v>
+        <v>17837892.91346806</v>
       </c>
       <c r="D4" t="n">
-        <v>4244.809156886742</v>
+        <v>4223.492975425443</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.06298739481713134</v>
+        <v>-0.05233818144966418</v>
       </c>
     </row>
     <row r="5">
